--- a/Base/Backlog_26.xlsx
+++ b/Base/Backlog_26.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ED7943-63EF-4695-9B98-13A65CE8ADAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA4D179-1133-4834-91F9-D108C50D6C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -118,10 +118,10 @@
     <t>Anderson Giese</t>
   </si>
   <si>
-    <t>Higor Pratz</t>
-  </si>
-  <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
   </si>
 </sst>
 </file>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -728,7 +728,7 @@
         <v>45838</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>11</v>
@@ -903,7 +903,7 @@
         <v>45838</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>11</v>
@@ -938,7 +938,7 @@
         <v>45838</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>11</v>
@@ -973,7 +973,7 @@
         <v>45838</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>11</v>
@@ -1043,7 +1043,7 @@
         <v>45838</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>11</v>
@@ -1410,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="17">
         <v>2025</v>
@@ -1564,7 +1564,7 @@
         <v>45838</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="17" t="s">
         <v>15</v>
@@ -1575,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="17">
         <v>2025</v>
@@ -1599,7 +1599,7 @@
         <v>45838</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>15</v>
@@ -1610,7 +1610,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="17">
         <v>2025</v>
@@ -1634,7 +1634,7 @@
         <v>45838</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="17" t="s">
         <v>15</v>
@@ -1645,7 +1645,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="17">
         <v>2025</v>
@@ -1669,7 +1669,7 @@
         <v>45838</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>15</v>
